--- a/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
+++ b/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>WEE</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>Team online meeting for setting up applications and arranging subsequent tasks.</t>
+  </si>
+  <si>
+    <t>28/7/2020</t>
+  </si>
+  <si>
+    <t>Team online meeting talking about tutorials and confusion that we would figure out.</t>
+  </si>
+  <si>
+    <t>24/7/2020</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group </t>
   </si>
 </sst>
 </file>
@@ -417,39 +435,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" customWidth="1"/>
-    <col min="2" max="2" width="79" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" customWidth="1"/>
+    <col min="1" max="2" width="14.69921875" customWidth="1"/>
+    <col min="3" max="3" width="79" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>44036</v>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
+++ b/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>WEE</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talking about the individual progress and try to put everyone on the same paper. Sharing the problems that each person is stuck on. </t>
   </si>
 </sst>
 </file>
@@ -115,11 +118,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,16 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.69921875" customWidth="1"/>
-    <col min="3" max="3" width="79" customWidth="1"/>
+    <col min="3" max="3" width="105.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -490,6 +496,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
+++ b/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>WEE</t>
   </si>
@@ -83,6 +83,25 @@
   </si>
   <si>
     <t xml:space="preserve">Talking about the individual progress and try to put everyone on the same paper. Sharing the problems that each person is stuck on. </t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Being familiar with what is the MVC. Including how they will process, who they will work.</t>
+  </si>
+  <si>
+    <t>23/7/2020</t>
+  </si>
+  <si>
+    <t>tutorial Part 1 +Part 2. Setting up VS 2009 and installing IDK, examine the function of a controller. Coding some others to change exist codes</t>
+  </si>
+  <si>
+    <t>Tutorial Part 3+ Part 4, understand the relationship between View, Model and Controller. The main idea is ViewData dictionary was used to pass data from the controller to a view.</t>
+  </si>
+  <si>
+    <t>Tutorial Part 5, I was stuck on a problem which is a namespcae could not be found. It spend me for almost 1.5 hours to work on it, but I did not work it out.
+Meanwhile, I understood how to develop a database in C# and operate DB</t>
   </si>
 </sst>
 </file>
@@ -125,7 +144,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,16 +460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.69921875" customWidth="1"/>
-    <col min="3" max="3" width="105.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="134.796875" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,7 +516,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -509,6 +528,66 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
+++ b/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>WEE</t>
   </si>
@@ -102,6 +102,12 @@
   <si>
     <t>Tutorial Part 5, I was stuck on a problem which is a namespcae could not be found. It spend me for almost 1.5 hours to work on it, but I did not work it out.
 Meanwhile, I understood how to develop a database in C# and operate DB</t>
+  </si>
+  <si>
+    <t>Tutorial Part 6, studying the difference of two actions which are Post and Get.</t>
+  </si>
+  <si>
+    <t>29/7/2020</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -586,8 +592,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
+++ b/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>WEE</t>
   </si>
@@ -108,6 +108,20 @@
   </si>
   <si>
     <t>29/7/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial Part 7 searching, there are two ways to create search, one is to modify URL, another is to add table into view. But the later way is the best to help users operate.
+Understood the way of adding search function.
+</t>
+  </si>
+  <si>
+    <t>Tutorial Part 8, studying how to add a new filed, when there will be a new field, all others will be updated based on new version. However, because of a tiny problem, my app can not process well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial Part 9 +10 , how to create validation rules that would be forced any time when users create or edit a movie. Meanwhile, explictly understood the details of fucntions of detail and delete. </t>
+  </si>
+  <si>
+    <t>Review the whole tutorial of MVC, tested and played some of them parts, trying to understand how to build my own website.</t>
   </si>
 </sst>
 </file>
@@ -466,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -605,6 +619,62 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
+++ b/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>WEE</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Review the whole tutorial of MVC, tested and played some of them parts, trying to understand how to build my own website.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed some problems related to database and namespace. Sharing some ideas </t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -549,32 +552,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -585,24 +585,24 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -613,24 +613,24 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -641,21 +641,21 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -669,9 +669,37 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>21</v>
       </c>
     </row>

--- a/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
+++ b/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>WEE</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fixed some problems related to database and namespace. Sharing some ideas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussing and reviewed the whole tutotial </t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -559,6 +562,9 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>

--- a/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
+++ b/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1716" yWindow="876" windowWidth="28044" windowHeight="17436" tabRatio="860"/>
+    <workbookView xWindow="1716" yWindow="876" windowWidth="28044" windowHeight="17436" tabRatio="860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WEEK1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
-  <si>
-    <t>WEE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>WE</t>
   </si>
@@ -128,6 +125,39 @@
   </si>
   <si>
     <t xml:space="preserve">discussing and reviewed the whole tutotial </t>
+  </si>
+  <si>
+    <t>Team online meeting for talking about problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team online meeting talking about tutorials and fixed a lot issues related to .net like enum and database </t>
+  </si>
+  <si>
+    <t>Review tutorials and being familiar with EF core</t>
+  </si>
+  <si>
+    <t>worked on task2, added several fileds,like directior, email address</t>
+  </si>
+  <si>
+    <t>being stuck on droplist, spend 2 hrs on looking for solutions to work out enum.</t>
+  </si>
+  <si>
+    <t>worked on category scaffold, develop a new scaffold with DB and others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watched tutorial vidos made by Nari and finished exercise </t>
+  </si>
+  <si>
+    <t>encountered some issues related to DB, searching it for Googole finally fixed it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refine the web application including view and outline </t>
+  </si>
+  <si>
+    <t>watching tutorial of sql server</t>
+  </si>
+  <si>
+    <t>commenced to start building a demo by myself related to song</t>
   </si>
 </sst>
 </file>
@@ -163,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -171,6 +201,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -501,16 +535,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -518,13 +552,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -532,13 +566,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -546,13 +580,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -560,13 +594,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -574,13 +608,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -588,13 +622,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -602,13 +636,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -616,13 +650,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -630,13 +664,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -644,13 +678,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
@@ -658,13 +692,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -672,13 +706,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -686,13 +720,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -700,13 +734,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -735,17 +769,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.796875" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" customWidth="1"/>
+    <col min="3" max="3" width="111.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43959</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +985,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +1015,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
+++ b/week1HelloWorldMVC/timesheet_Wei_Liu_317932.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>WE</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>commenced to start building a demo by myself related to song</t>
+  </si>
+  <si>
+    <t>Physical meeting in Library talking about issues related to tutorial.</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -828,6 +831,9 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
       <c r="D4" s="4">
         <v>43959</v>
       </c>
